--- a/Informativos/Ubicaciones camaras.xlsx
+++ b/Informativos/Ubicaciones camaras.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Camaras de  Vigilancia</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>Topos Camara 7</t>
+  </si>
+  <si>
+    <t>Esquina</t>
+  </si>
+  <si>
+    <t>Cortes</t>
+  </si>
+  <si>
+    <t>Procesados hamburguesera</t>
+  </si>
+  <si>
+    <t>Pailas</t>
+  </si>
+  <si>
+    <t>Camara 7</t>
+  </si>
+  <si>
+    <t>Chicharron Botanero</t>
+  </si>
+  <si>
+    <t>Calle estaño</t>
+  </si>
+  <si>
+    <t>Puerta Tracera</t>
+  </si>
+  <si>
+    <t>Puerta Principal</t>
+  </si>
+  <si>
+    <t>Termovacs</t>
   </si>
 </sst>
 </file>
@@ -136,14 +166,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,157 +468,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3">
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="3">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="3">
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3">
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3">
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
